--- a/biology/Biochimie/Charles_Dhéré/Charles_Dhéré.xlsx
+++ b/biology/Biochimie/Charles_Dhéré/Charles_Dhéré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles_Dh%C3%A9r%C3%A9</t>
+          <t>Charles_Dhéré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Dhéré (né le 5 mars 1876 à Paris - 18 janvier 1955 à Genève), physiologiste et biochimiste français, fut professeur à l'Université de Fribourg.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles_Dh%C3%A9r%C3%A9</t>
+          <t>Charles_Dhéré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dhéré étudia la médecine à la Sorbonne et soutint sa thèse en neurophysiologie en 1898 sous la direction de Louis Lapicque. Il y fut ensuite assistant d'Albert Dastre et passa son doctorat d'état en sciences naturelles en 1909, avec un mémoire sur la spectroscopie aux ultra-violets des protéines. Nommé professeur surnuméraire en 1900, il obtint en 1908 la chaire de professeur de Physiologie, de Biochimie et de Microbiologie de l'Université de Fribourg à la succession de Maurice Arthus. Doyen de la faculté de sciences naturelles en 1916-17 puis à nouveau en 1933-34, il prit sa retraite en 1938, avec la dignité de professeur honoraire. Il se retira à Genève.
 Il s'est consacré au développement de méthodes analytiques, allant de la spectroscopie de fluorescence infrarouge à l'électrodialyse en passant par la chromatographie, pour détecter des quantités infimes de macromolécules dans les tissus vivants.
-Élu en 1926 membre de l’Académie Léopoldine[1], ses travaux ont été couronnés en 1937 du prix Marcel-Benoist.
+Élu en 1926 membre de l’Académie Léopoldine, ses travaux ont été couronnés en 1937 du prix Marcel-Benoist.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles_Dh%C3%A9r%C3%A9</t>
+          <t>Charles_Dhéré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Écrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La fluorescence en biochimie, 1937</t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Charles_Dh%C3%A9r%C3%A9</t>
+          <t>Charles_Dhéré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« Dhéré, Charles » dans le Dictionnaire historique de la Suisse en ligne.</t>
         </is>
